--- a/등교.xlsx
+++ b/등교.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1204j\Desktop\소창프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6609012E-E560-47CA-BA4E-739480DA8D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1B010-E02B-46BD-B346-AF7A75BD3936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{CB9E37AD-96FC-40BF-8337-6182B782AF09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="34">
   <si>
     <t>전</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>19시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,17 +535,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296CE3DC-EAA7-4A40-B3C5-CB38448B859F}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -546,28 +554,28 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -578,75 +586,75 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>3</v>
@@ -660,48 +668,48 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -710,19 +718,19 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
@@ -731,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
@@ -742,7 +750,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -783,10 +791,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -795,16 +803,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
         <v>3</v>
@@ -816,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
         <v>3</v>
@@ -824,7 +832,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -833,19 +841,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
@@ -857,18 +865,18 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -880,13 +888,13 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
         <v>3</v>
@@ -898,18 +906,18 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -947,13 +955,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -988,13 +996,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1003,27 +1011,68 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
         <v>3</v>
       </c>
     </row>
